--- a/experiment result/64_0.1_40_zs40_kappa_lp.xlsx
+++ b/experiment result/64_0.1_40_zs40_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0599499981809307</v>
+        <v>0.002695195914038428</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06454487162358299</v>
+        <v>0.00217250102829961</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06332328666638615</v>
+        <v>0.006449020242931104</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04773606137598586</v>
+        <v>0.003400618639001175</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03691703677370949</v>
+        <v>0.002464941000533617</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05918032956522519</v>
+        <v>0.008358006709922499</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06344117636605862</v>
+        <v>0.001240120417272339</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04549911382124149</v>
+        <v>0.002168035382859559</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04288469482601283</v>
+        <v>0.001752882149922689</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0569004770108263</v>
+        <v>0.02677737430027751</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08321040562565923</v>
+        <v>0.006542853677079248</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07765820017893099</v>
+        <v>0.01738030161322206</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08891622352247422</v>
+        <v>0.003622727824257499</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1095456114711149</v>
+        <v>0.004834301091208358</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05315848556252419</v>
+        <v>0.008721096623022647</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05712287769168319</v>
+        <v>0.001918357633123422</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06797976058674265</v>
+        <v>0.01117012551982785</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07150689915558604</v>
+        <v>0.0006317633567375577</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04260321969670935</v>
+        <v>0.005637843779521334</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06439652785115697</v>
+        <v>0.004663177256425211</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05367655344210612</v>
+        <v>0.003790518550983361</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04874618696654744</v>
+        <v>0.002837851572194122</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07733623092839703</v>
+        <v>0.009347277770431615</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04074138623935464</v>
+        <v>0.001340751161624061</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03855118339279943</v>
+        <v>0.003598882479044106</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0703856185590641</v>
+        <v>0.01692639715537331</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05319704840255353</v>
+        <v>0.0069272383830076</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03312514612224658</v>
+        <v>0.005228319539239397</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05193606970539303</v>
+        <v>0.002468499467076358</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06468917607004145</v>
+        <v>0.005596020570592523</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04077081687195443</v>
+        <v>0.001041688792534998</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0497658164094212</v>
+        <v>0.00124521584292937</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07749280849498108</v>
+        <v>0.006169682682720844</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03971276899260213</v>
+        <v>0.0003869019831644832</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03385756029051541</v>
+        <v>0.007638362398443452</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.06180350229675408</v>
+        <v>0.006997790393833775</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04469299441699653</v>
+        <v>0.0006429819738018641</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09463900396505803</v>
+        <v>0.003613874921203306</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02843071697189751</v>
+        <v>0.004077889339608891</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06595371752689681</v>
+        <v>0.008889674209089924</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07394213105493704</v>
+        <v>0.05380634077267682</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04508763710322884</v>
+        <v>0.004117985434366646</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02344088331589823</v>
+        <v>0.004733406381831232</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03040480777785323</v>
+        <v>0.003348943678897007</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03200093748912754</v>
+        <v>0.003402161074922071</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06208215980257976</v>
+        <v>0.005666114659986165</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08072860552189949</v>
+        <v>0.01218883988706533</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05444152923472814</v>
+        <v>0.001752638090084017</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06947228262875489</v>
+        <v>0.004968799406272251</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.08807320726823735</v>
+        <v>0.0007619214602518012</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.038247523418368</v>
+        <v>0.00394047723631835</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05076300490120903</v>
+        <v>0.006017767714102547</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03413348434383399</v>
+        <v>3.393060202594962e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04908513887491688</v>
+        <v>0.0006236375060364127</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07393335745957397</v>
+        <v>0.001497925142584051</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04804596293480115</v>
+        <v>0.009141330218530395</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05906798569828942</v>
+        <v>0.001850849972894228</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06764855282877333</v>
+        <v>0.002339711639529324</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09196414197104529</v>
+        <v>0.01030777493323281</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.08392594297309636</v>
+        <v>0.00047000602238373</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02840868842178968</v>
+        <v>0.000383539151290063</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04707049064517228</v>
+        <v>0.005315928925495795</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06840246535469739</v>
+        <v>0.00787292526902034</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02645077528775762</v>
+        <v>0.001712562254367497</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04125400944725237</v>
+        <v>0.007674158400606622</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.05792409996286037</v>
+        <v>0.01014577600889744</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0370115921821038</v>
+        <v>0.0022007004829617</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.04597590157143791</v>
+        <v>0.001203050075982415</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04819633093298148</v>
+        <v>0.0004197702700428625</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04990355441232648</v>
+        <v>0.004919716230296896</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07896559951040338</v>
+        <v>0.004218286617353613</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0629541190326868</v>
+        <v>0.001390146676727443</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08579650189879917</v>
+        <v>0.004119263610369362</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.05354973689300511</v>
+        <v>0.006006370626536623</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02572327680840232</v>
+        <v>0.009837136373040574</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04594333338235926</v>
+        <v>0.01533720735883634</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.07116980936947273</v>
+        <v>0.0002054317541214975</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03310864329341449</v>
+        <v>0.02959566334571408</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03872845082283995</v>
+        <v>0.004437846693492159</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03544172522414345</v>
+        <v>0.003923637849248604</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0304091946058166</v>
+        <v>0.005673927479055675</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1057658391480456</v>
+        <v>0.003868706251592613</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.05714299572314859</v>
+        <v>0.003272631414625517</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09864030754660673</v>
+        <v>0.004959479983923981</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.06581261080501097</v>
+        <v>0.05272958680933119</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.073050561204096</v>
+        <v>0.003680184201194505</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.08013707682796521</v>
+        <v>0.00715852218927817</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07198565328021952</v>
+        <v>0.004489161050938751</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02864820707048429</v>
+        <v>0.002937025312251025</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.05886388317738643</v>
+        <v>0.001780722982452567</v>
       </c>
     </row>
   </sheetData>
